--- a/biology/Botanique/Ardisia_standleyana/Ardisia_standleyana.xlsx
+++ b/biology/Botanique/Ardisia_standleyana/Ardisia_standleyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia standleyana est une espèce de plantes à fleurs de la famille des Primulaceae, originaire de l'Amérique centrale et de Colombie.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1956 par le botaniste Paul Hamilton Allen (en) (1911-1963). L'épithète spécifique standleyana signifie « de Standley », en hommage au botaniste américain Paul Carpenter Standley (1884-1963).
-En classification phylogénétique APG III (2009)[2], l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981)[3] et en classification phylogénétique APG II (2003)[4], le genre Ardisia était assigné à la famille des Myrsinaceae.
+En classification phylogénétique APG III (2009), l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), le genre Ardisia était assigné à la famille des Myrsinaceae.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Colombie, Costa Rica, Nicaragua et Panama[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Colombie, Costa Rica, Nicaragua et Panama.
 </t>
         </is>
       </c>
